--- a/output/시험 프로그램_테이블정의서.xlsx
+++ b/output/시험 프로그램_테이블정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohtj6\Desktop\산출물 폼\학습프로그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohtj6\IdeaProjects\testers\testers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E0201-C867-4D94-AA0E-8CF6B25EC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C951968C-9A22-4DB6-A979-F1F5C2BC2E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28890" yWindow="1290" windowWidth="21735" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="3" r:id="rId1"/>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학습지 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST_QUESTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +534,14 @@
   </si>
   <si>
     <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1010,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,15 +1155,15 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,9 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2369,22 +2366,22 @@
       <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickTop="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="46"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="19.5">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="43" t="s">
@@ -2627,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2686,164 +2683,177 @@
       <c r="A4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="50"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="50"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="50"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="50"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="50"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="50"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="50"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="50"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="50"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="50"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="50"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="50"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="50"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="50"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B15:F15"/>
@@ -2851,19 +2861,6 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2875,7 +2872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2894,12 +2891,12 @@
       <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -2911,10 +2908,10 @@
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2926,27 +2923,27 @@
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
@@ -3267,15 +3264,15 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -3284,11 +3281,11 @@
       <c r="B36" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
@@ -3298,14 +3295,14 @@
       <c r="A37" s="2">
         <v>1</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="68" t="s">
+      <c r="C37" s="69"/>
+      <c r="D37" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="70"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="2">
         <v>1</v>
       </c>
@@ -3315,12 +3312,12 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
@@ -3349,7 +3346,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3367,12 +3364,12 @@
       <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -3384,10 +3381,10 @@
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
@@ -3399,27 +3396,27 @@
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
@@ -3482,7 +3479,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -3493,16 +3490,16 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3510,15 +3507,15 @@
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
@@ -3529,10 +3526,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3752,15 +3749,15 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -3769,11 +3766,11 @@
       <c r="B36" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
@@ -3781,10 +3778,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="70"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
     </row>
@@ -3792,12 +3789,12 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
@@ -3826,7 +3823,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3844,12 +3841,12 @@
       <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -3861,10 +3858,10 @@
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="63"/>
+      <c r="D2" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="62"/>
       <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
@@ -3876,27 +3873,27 @@
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
@@ -3942,7 +3939,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>9</v>
@@ -3953,13 +3950,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -3970,13 +3967,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>9</v>
@@ -3987,13 +3984,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>9</v>
@@ -4004,13 +4001,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -4021,13 +4018,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -4038,13 +4035,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
@@ -4055,13 +4052,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -4072,7 +4069,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -4257,15 +4254,15 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -4274,11 +4271,11 @@
       <c r="B36" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
@@ -4286,10 +4283,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="70"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
     </row>
@@ -4297,12 +4294,12 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
@@ -4331,7 +4328,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4349,12 +4346,12 @@
       <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -4366,10 +4363,10 @@
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="63"/>
+      <c r="D2" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="62"/>
       <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
@@ -4381,27 +4378,27 @@
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
@@ -4458,18 +4455,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>103</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4477,16 +4472,18 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -4494,7 +4491,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -4724,15 +4721,15 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -4741,11 +4738,11 @@
       <c r="B36" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
@@ -4753,10 +4750,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="70"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
     </row>
@@ -4764,12 +4761,12 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
